--- a/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H2">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.51438562395092</v>
+        <v>2.548026</v>
       </c>
       <c r="N2">
-        <v>2.51438562395092</v>
+        <v>7.644078</v>
       </c>
       <c r="O2">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="P2">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="Q2">
-        <v>4.4139304463664</v>
+        <v>6.434157196662</v>
       </c>
       <c r="R2">
-        <v>4.4139304463664</v>
+        <v>57.90741476995801</v>
       </c>
       <c r="S2">
-        <v>0.1471728656885485</v>
+        <v>0.1335424507626665</v>
       </c>
       <c r="T2">
-        <v>0.1471728656885485</v>
+        <v>0.1335424507626666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H3">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.67710309867652</v>
+        <v>6.757657999999999</v>
       </c>
       <c r="N3">
-        <v>6.67710309867652</v>
+        <v>20.272974</v>
       </c>
       <c r="O3">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977849</v>
       </c>
       <c r="P3">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977848</v>
       </c>
       <c r="Q3">
-        <v>11.72145926226908</v>
+        <v>17.06412487677933</v>
       </c>
       <c r="R3">
-        <v>11.72145926226908</v>
+        <v>153.577123891014</v>
       </c>
       <c r="S3">
-        <v>0.3908264460985846</v>
+        <v>0.3541699381152074</v>
       </c>
       <c r="T3">
-        <v>0.3908264460985846</v>
+        <v>0.3541699381152075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H4">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.94897024934922</v>
+        <v>3.246115666666667</v>
       </c>
       <c r="N4">
-        <v>2.94897024934922</v>
+        <v>9.738347000000001</v>
       </c>
       <c r="O4">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="P4">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="Q4">
-        <v>5.176831049717024</v>
+        <v>8.196940878107446</v>
       </c>
       <c r="R4">
-        <v>5.176831049717024</v>
+        <v>73.77246790296701</v>
       </c>
       <c r="S4">
-        <v>0.1726101192644545</v>
+        <v>0.1701294420016726</v>
       </c>
       <c r="T4">
-        <v>0.1726101192644545</v>
+        <v>0.1701294420016726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H5">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.36197443246214</v>
+        <v>1.525989333333333</v>
       </c>
       <c r="N5">
-        <v>1.36197443246214</v>
+        <v>4.577968</v>
       </c>
       <c r="O5">
-        <v>0.1008688131736612</v>
+        <v>0.108396945950343</v>
       </c>
       <c r="P5">
-        <v>0.1008688131736612</v>
+        <v>0.108396945950343</v>
       </c>
       <c r="Q5">
-        <v>2.390906294306184</v>
+        <v>3.853357560360889</v>
       </c>
       <c r="R5">
-        <v>2.390906294306184</v>
+        <v>34.680218043248</v>
       </c>
       <c r="S5">
-        <v>0.07971954592431292</v>
+        <v>0.07997734536893306</v>
       </c>
       <c r="T5">
-        <v>0.07971954592431292</v>
+        <v>0.07997734536893307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H6">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.51438562395092</v>
+        <v>2.548026</v>
       </c>
       <c r="N6">
-        <v>2.51438562395092</v>
+        <v>7.644078</v>
       </c>
       <c r="O6">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="P6">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="Q6">
-        <v>1.170997570895194</v>
+        <v>0.9528997220340002</v>
       </c>
       <c r="R6">
-        <v>1.170997570895194</v>
+        <v>8.576097498306002</v>
       </c>
       <c r="S6">
-        <v>0.03904435521063693</v>
+        <v>0.01977765856847605</v>
       </c>
       <c r="T6">
-        <v>0.03904435521063693</v>
+        <v>0.01977765856847606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H7">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.67710309867652</v>
+        <v>6.757657999999999</v>
       </c>
       <c r="N7">
-        <v>6.67710309867652</v>
+        <v>20.272974</v>
       </c>
       <c r="O7">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977849</v>
       </c>
       <c r="P7">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977848</v>
       </c>
       <c r="Q7">
-        <v>3.109654873416346</v>
+        <v>2.527199655655333</v>
       </c>
       <c r="R7">
-        <v>3.109654873416346</v>
+        <v>22.744796900898</v>
       </c>
       <c r="S7">
-        <v>0.1036846467301706</v>
+        <v>0.05245262514846032</v>
       </c>
       <c r="T7">
-        <v>0.1036846467301706</v>
+        <v>0.05245262514846032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H8">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94897024934922</v>
+        <v>3.246115666666667</v>
       </c>
       <c r="N8">
-        <v>2.94897024934922</v>
+        <v>9.738347000000001</v>
       </c>
       <c r="O8">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="P8">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="Q8">
-        <v>1.373391959346303</v>
+        <v>1.213968270518778</v>
       </c>
       <c r="R8">
-        <v>1.373391959346303</v>
+        <v>10.925714434669</v>
       </c>
       <c r="S8">
-        <v>0.04579275383394374</v>
+        <v>0.02519619789166766</v>
       </c>
       <c r="T8">
-        <v>0.04579275383394374</v>
+        <v>0.02519619789166766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3739756666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.121927</v>
+      </c>
+      <c r="I9">
+        <v>0.1092711394000877</v>
+      </c>
+      <c r="J9">
+        <v>0.1092711394000878</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.525989333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.577968</v>
+      </c>
+      <c r="O9">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="P9">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="Q9">
+        <v>0.5706828782595557</v>
+      </c>
+      <c r="R9">
+        <v>5.136145904336001</v>
+      </c>
+      <c r="S9">
+        <v>0.01184465779148371</v>
+      </c>
+      <c r="T9">
+        <v>0.01184465779148371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.56998</v>
+      </c>
+      <c r="I10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.548026</v>
+      </c>
+      <c r="N10">
+        <v>7.644078</v>
+      </c>
+      <c r="O10">
+        <v>0.1809961777378536</v>
+      </c>
+      <c r="P10">
+        <v>0.1809961777378536</v>
+      </c>
+      <c r="Q10">
+        <v>1.33344995316</v>
+      </c>
+      <c r="R10">
+        <v>12.00104957844</v>
+      </c>
+      <c r="S10">
+        <v>0.02767606840671098</v>
+      </c>
+      <c r="T10">
+        <v>0.02767606840671099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="H9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="I9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="J9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.36197443246214</v>
-      </c>
-      <c r="N9">
-        <v>1.36197443246214</v>
-      </c>
-      <c r="O9">
-        <v>0.1008688131736612</v>
-      </c>
-      <c r="P9">
-        <v>0.1008688131736612</v>
-      </c>
-      <c r="Q9">
-        <v>0.6342975941488511</v>
-      </c>
-      <c r="R9">
-        <v>0.6342975941488511</v>
-      </c>
-      <c r="S9">
-        <v>0.02114926724934832</v>
-      </c>
-      <c r="T9">
-        <v>0.02114926724934832</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.56998</v>
+      </c>
+      <c r="I11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.757657999999999</v>
+      </c>
+      <c r="N11">
+        <v>20.272974</v>
+      </c>
+      <c r="O11">
+        <v>0.4800226796977849</v>
+      </c>
+      <c r="P11">
+        <v>0.4800226796977848</v>
+      </c>
+      <c r="Q11">
+        <v>3.536462635613332</v>
+      </c>
+      <c r="R11">
+        <v>31.82816372052</v>
+      </c>
+      <c r="S11">
+        <v>0.07340011643411712</v>
+      </c>
+      <c r="T11">
+        <v>0.07340011643411712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.56998</v>
+      </c>
+      <c r="I12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.246115666666667</v>
+      </c>
+      <c r="N12">
+        <v>9.738347000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2305841966140185</v>
+      </c>
+      <c r="P12">
+        <v>0.2305841966140185</v>
+      </c>
+      <c r="Q12">
+        <v>1.698778891451111</v>
+      </c>
+      <c r="R12">
+        <v>15.28901002306</v>
+      </c>
+      <c r="S12">
+        <v>0.03525855672067824</v>
+      </c>
+      <c r="T12">
+        <v>0.03525855672067825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.56998</v>
+      </c>
+      <c r="I13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.525989333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.577968</v>
+      </c>
+      <c r="O13">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="P13">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="Q13">
+        <v>0.7985909111822221</v>
+      </c>
+      <c r="R13">
+        <v>7.18731820064</v>
+      </c>
+      <c r="S13">
+        <v>0.01657494278992625</v>
+      </c>
+      <c r="T13">
+        <v>0.01657494278992625</v>
       </c>
     </row>
   </sheetData>
